--- a/experiments/paper_reproducible_results/associative_leaderboard.xlsx
+++ b/experiments/paper_reproducible_results/associative_leaderboard.xlsx
@@ -458,13 +458,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.10054773082942</v>
+        <v>21.08178585539313</v>
       </c>
       <c r="C2" t="n">
-        <v>2.325581395348837</v>
+        <v>3.796225591796662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1639930844406691</v>
+        <v>0.1630845564154432</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.26564945226917</v>
+        <v>11.76195179770842</v>
       </c>
       <c r="C3" t="n">
-        <v>10.65440778799351</v>
+        <v>14.26857205192539</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5737198969874703</v>
+        <v>0.518293580295162</v>
       </c>
     </row>
     <row r="4">
@@ -490,13 +490,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.82902973395931</v>
+        <v>16.08534176214935</v>
       </c>
       <c r="C4" t="n">
-        <v>5.205516495402921</v>
+        <v>6.839751281771572</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4289804590291099</v>
+        <v>0.3805761339146288</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.582942097026604</v>
+        <v>5.4930857368629</v>
       </c>
       <c r="C5" t="n">
-        <v>13.54786371011357</v>
+        <v>19.67928438965856</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6680399110270421</v>
+        <v>0.665832759214355</v>
       </c>
     </row>
     <row r="6">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.52777777777778</v>
+        <v>20.51007506914263</v>
       </c>
       <c r="C6" t="n">
-        <v>2.595997836668469</v>
+        <v>4.178029889822189</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1903813373400612</v>
+        <v>0.1923234946558675</v>
       </c>
     </row>
     <row r="7">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.67683881064163</v>
+        <v>13.63472935598578</v>
       </c>
       <c r="C7" t="n">
-        <v>10.61384532179556</v>
+        <v>15.06490673066434</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5123981430292457</v>
+        <v>0.4681502637895698</v>
       </c>
     </row>
     <row r="8">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.21948356807512</v>
+        <v>10.15073093638878</v>
       </c>
       <c r="C8" t="n">
-        <v>12.20930232558139</v>
+        <v>17.87934984182393</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5971840897629371</v>
+        <v>0.5998124841060223</v>
       </c>
     </row>
     <row r="9">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.67018779342723</v>
+        <v>15.6153694192019</v>
       </c>
       <c r="C9" t="n">
-        <v>4.461871281773932</v>
+        <v>5.203447147376459</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4667717114268369</v>
+        <v>0.430568840075845</v>
       </c>
     </row>
     <row r="10">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.24295774647887</v>
+        <v>22.14776768075859</v>
       </c>
       <c r="C10" t="n">
-        <v>1.581936181719849</v>
+        <v>2.585360532344279</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1248469688783285</v>
+        <v>0.1240246989334159</v>
       </c>
     </row>
     <row r="11">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.082159624413146</v>
+        <v>9.751086527064402</v>
       </c>
       <c r="C11" t="n">
-        <v>13.79123850730124</v>
+        <v>19.07930620704702</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6213119800801554</v>
+        <v>0.5611195980575474</v>
       </c>
     </row>
     <row r="12">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.09076682316119</v>
+        <v>17.88008692216515</v>
       </c>
       <c r="C12" t="n">
-        <v>3.77230935640887</v>
+        <v>6.054325297261918</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3513730384190588</v>
+        <v>0.3540819870504096</v>
       </c>
     </row>
     <row r="13">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.220657276995305</v>
+        <v>4.174436981430265</v>
       </c>
       <c r="C13" t="n">
-        <v>14.44023796646836</v>
+        <v>22.10101450856332</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6806923368477718</v>
+        <v>0.6810070902486111</v>
       </c>
     </row>
     <row r="14">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.563380281690141</v>
+        <v>5.155077044646385</v>
       </c>
       <c r="C14" t="n">
-        <v>19.42942130881558</v>
+        <v>27.5771790116723</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7005588725163232</v>
+        <v>0.6887104810216275</v>
       </c>
     </row>
     <row r="15">
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.614241001564945</v>
+        <v>7.201896483603319</v>
       </c>
       <c r="C15" t="n">
-        <v>13.58842617631152</v>
+        <v>19.76655394349297</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6627174476881373</v>
+        <v>0.6502357626069529</v>
       </c>
     </row>
     <row r="16">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.548513302034428</v>
+        <v>7.658632951402607</v>
       </c>
       <c r="C16" t="n">
-        <v>13.06111411573824</v>
+        <v>17.70481073415512</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6592865376149314</v>
+        <v>0.6457646661437807</v>
       </c>
     </row>
     <row r="17">
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.98435054773083</v>
+        <v>8.005728960885026</v>
       </c>
       <c r="C17" t="n">
-        <v>12.79069767441861</v>
+        <v>18.58841496672848</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6488517454833664</v>
+        <v>0.6426373954626622</v>
       </c>
     </row>
     <row r="18">
@@ -714,13 +714,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.136541471048513</v>
+        <v>6.076847096009482</v>
       </c>
       <c r="C18" t="n">
-        <v>15.15684153596539</v>
+        <v>22.54827097196466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6434819850118872</v>
+        <v>0.6562119709838741</v>
       </c>
     </row>
     <row r="19">
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.75704225352113</v>
+        <v>11.97826945871197</v>
       </c>
       <c r="C19" t="n">
-        <v>8.315305570578692</v>
+        <v>13.18861132322461</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4402922158567128</v>
+        <v>0.4871736997984169</v>
       </c>
     </row>
     <row r="20">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.117762128325509</v>
+        <v>8.548202291584355</v>
       </c>
       <c r="C20" t="n">
-        <v>12.5743645213629</v>
+        <v>18.752045380168</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6069742532661034</v>
+        <v>0.6178184055369436</v>
       </c>
     </row>
     <row r="21">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.196009389671362</v>
+        <v>8.936586329514027</v>
       </c>
       <c r="C21" t="n">
-        <v>11.64142779881017</v>
+        <v>17.3884586015054</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5905528306494391</v>
+        <v>0.5990069755938003</v>
       </c>
     </row>
     <row r="22">
@@ -778,13 +778,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.296557120500783</v>
+        <v>5.268470960094824</v>
       </c>
       <c r="C22" t="n">
-        <v>13.29096809085993</v>
+        <v>19.16657576088142</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6674393449660195</v>
+        <v>0.6661555833896791</v>
       </c>
     </row>
     <row r="23">
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.758998435054773</v>
+        <v>5.577637297510865</v>
       </c>
       <c r="C23" t="n">
-        <v>13.71011357490536</v>
+        <v>21.7192102105378</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6670958277341081</v>
+        <v>0.6696783162278356</v>
       </c>
     </row>
     <row r="24">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.507042253521127</v>
+        <v>6.439549585144212</v>
       </c>
       <c r="C24" t="n">
-        <v>13.12871822606814</v>
+        <v>18.97021926475401</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6584022844125378</v>
+        <v>0.6543367088393156</v>
       </c>
     </row>
     <row r="25">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.280907668231612</v>
+        <v>5.259383642828921</v>
       </c>
       <c r="C25" t="n">
-        <v>13.29096809085993</v>
+        <v>18.99203665321261</v>
       </c>
       <c r="D25" t="n">
-        <v>0.667492957165163</v>
+        <v>0.6659820912638841</v>
       </c>
     </row>
     <row r="26">
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.197574334898278</v>
+        <v>6.174436981430265</v>
       </c>
       <c r="C26" t="n">
-        <v>13.31800973499189</v>
+        <v>19.18839314934003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6611139140994677</v>
+        <v>0.6567363058881797</v>
       </c>
     </row>
   </sheetData>
